--- a/plantillaHPV/encuestaIO.xlsx
+++ b/plantillaHPV/encuestaIO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="detalle" sheetId="1" r:id="rId1"/>
@@ -522,20 +522,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647213</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51506</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -554,8 +554,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885825" y="200025"/>
-          <a:ext cx="7571888" cy="823031"/>
+          <a:off x="209550" y="0"/>
+          <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,9 +890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>

--- a/plantillaHPV/encuestaIO.xlsx
+++ b/plantillaHPV/encuestaIO.xlsx
@@ -523,19 +523,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -554,7 +554,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="0"/>
+          <a:off x="600075" y="0"/>
           <a:ext cx="10058400" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
